--- a/Portas Lógicas Exercício 01 - Natália.xlsx
+++ b/Portas Lógicas Exercício 01 - Natália.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natália Nogueira\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natália Nogueira\Desktop\ADS\ADS_Automacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C931E0A-50DE-4375-B1E4-BC93706D0C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03481A57-BCEC-44A5-BE5A-6D553E4FE0C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" firstSheet="3" activeTab="9" xr2:uid="{63589DE7-919D-4536-9115-0D92C656695E}"/>
   </bookViews>
@@ -259,9 +259,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,6 +266,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1204,34 +1204,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1304,34 +1304,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1398,41 +1398,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
     <col min="4" max="4" width="7.1796875" customWidth="1"/>
     <col min="7" max="7" width="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1506,34 +1506,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1606,34 +1606,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1707,34 +1707,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1808,34 +1808,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1909,34 +1909,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2013,23 +2013,23 @@
         <v>34</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2075,34 +2075,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
